--- a/scripts/pga.xlsx
+++ b/scripts/pga.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10580" yWindow="460" windowWidth="18220" windowHeight="16780" tabRatio="868"/>
+    <workbookView xWindow="9800" yWindow="460" windowWidth="19000" windowHeight="16780" tabRatio="868" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Player Tiers &amp; Instructions" sheetId="23" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="208">
   <si>
     <t>Tier A</t>
   </si>
@@ -402,9 +402,6 @@
     <t>Robert Streb</t>
   </si>
   <si>
-    <t>Sean OHair</t>
-  </si>
-  <si>
     <t>Sung Kang</t>
   </si>
   <si>
@@ -640,6 +637,42 @@
   </si>
   <si>
     <t>Y.E. Yang</t>
+  </si>
+  <si>
+    <t>Alex Duff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rory McIlroy </t>
+  </si>
+  <si>
+    <t>Kyle Bivenour</t>
+  </si>
+  <si>
+    <t>Sean Buckle</t>
+  </si>
+  <si>
+    <t>Nate Heckmann</t>
+  </si>
+  <si>
+    <t>Ryan Boudouris</t>
+  </si>
+  <si>
+    <t>Sean O'Hair</t>
+  </si>
+  <si>
+    <t>Brian Harman      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Webb Simpson         </t>
+  </si>
+  <si>
+    <t> Lee Westwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Graham DeLaet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Kuchar    </t>
   </si>
 </sst>
 </file>
@@ -650,7 +683,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,6 +776,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -907,7 +948,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -982,7 +1023,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1003,23 +1061,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1305,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1331,7 +1373,7 @@
   <sheetData>
     <row r="2" spans="2:20" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -1348,12 +1390,12 @@
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B4" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.15">
@@ -1453,23 +1495,23 @@
       <c r="M11" s="20"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="40"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="I13" s="40" t="s">
+      <c r="G13" s="43"/>
+      <c r="I13" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="L13" s="40" t="s">
+      <c r="J13" s="43"/>
+      <c r="L13" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="40"/>
+      <c r="M13" s="43"/>
     </row>
     <row r="14" spans="2:20" ht="13" x14ac:dyDescent="0.15">
       <c r="C14" s="15" t="s">
@@ -1672,7 +1714,7 @@
         <v>82</v>
       </c>
       <c r="L17" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M17" s="5">
         <v>25000</v>
@@ -1714,7 +1756,7 @@
         <v>83</v>
       </c>
       <c r="L18" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M18" s="5">
         <v>25000</v>
@@ -1756,7 +1798,7 @@
         <v>84</v>
       </c>
       <c r="L19" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M19" s="5">
         <v>25000</v>
@@ -1798,7 +1840,7 @@
         <v>85</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M20" s="5">
         <v>25000</v>
@@ -1862,7 +1904,7 @@
         <v>22</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G22" s="5">
         <v>6600</v>
@@ -1924,7 +1966,7 @@
         <v>88</v>
       </c>
       <c r="L23" s="26" t="s">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="M23" s="5">
         <v>25000</v>
@@ -1966,7 +2008,7 @@
         <v>89</v>
       </c>
       <c r="L24" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M24" s="5">
         <v>25000</v>
@@ -2008,7 +2050,7 @@
         <v>90</v>
       </c>
       <c r="L25" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M25" s="5">
         <v>30000</v>
@@ -2050,7 +2092,7 @@
         <v>91</v>
       </c>
       <c r="L26" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M26" s="5">
         <v>30000</v>
@@ -2165,8 +2207,8 @@
         <f t="shared" si="4"/>
         <v>94</v>
       </c>
-      <c r="L29" s="53" t="s">
-        <v>143</v>
+      <c r="L29" s="42" t="s">
+        <v>142</v>
       </c>
       <c r="M29" s="5">
         <v>30000</v>
@@ -2198,7 +2240,7 @@
         <v>95</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M30" s="5">
         <v>30000</v>
@@ -2219,8 +2261,8 @@
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="I31" s="53" t="s">
-        <v>124</v>
+      <c r="I31" s="42" t="s">
+        <v>123</v>
       </c>
       <c r="J31" s="5">
         <v>17500</v>
@@ -2252,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J32" s="5">
         <v>17500</v>
@@ -2261,8 +2303,8 @@
         <f t="shared" si="4"/>
         <v>97</v>
       </c>
-      <c r="L32" s="53" t="s">
-        <v>145</v>
+      <c r="L32" s="42" t="s">
+        <v>144</v>
       </c>
       <c r="M32" s="5">
         <v>30000</v>
@@ -2284,7 +2326,7 @@
         <v>56</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J33" s="5">
         <v>17500</v>
@@ -2326,7 +2368,7 @@
         <v>99</v>
       </c>
       <c r="L34" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M34" s="5">
         <v>30000</v>
@@ -2348,7 +2390,7 @@
         <v>58</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J35" s="5">
         <v>17500</v>
@@ -2380,7 +2422,7 @@
         <v>59</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J36" s="5">
         <v>17500</v>
@@ -2422,7 +2464,7 @@
         <v>102</v>
       </c>
       <c r="L37" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M37" s="5">
         <v>30000</v>
@@ -2444,7 +2486,7 @@
         <v>103</v>
       </c>
       <c r="L38" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M38" s="5">
         <v>30000</v>
@@ -2488,7 +2530,7 @@
         <v>105</v>
       </c>
       <c r="L40" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M40" s="5">
         <v>30000</v>
@@ -2522,7 +2564,7 @@
         <v>65</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J42" s="5">
         <v>20000</v>
@@ -2544,7 +2586,7 @@
         <v>66</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J43" s="5">
         <v>20000</v>
@@ -2554,7 +2596,7 @@
         <v>108</v>
       </c>
       <c r="L43" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M43" s="5">
         <v>30000</v>
@@ -2588,7 +2630,7 @@
         <v>68</v>
       </c>
       <c r="I45" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J45" s="5">
         <v>20000</v>
@@ -2610,7 +2652,7 @@
         <v>69</v>
       </c>
       <c r="I46" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J46" s="5">
         <v>20000</v>
@@ -2632,7 +2674,7 @@
         <v>70</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J47" s="5">
         <v>20000</v>
@@ -2664,7 +2706,7 @@
         <v>113</v>
       </c>
       <c r="L48" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M48" s="5">
         <v>35000</v>
@@ -2676,7 +2718,7 @@
         <v>72</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J49" s="5">
         <v>20000</v>
@@ -2686,7 +2728,7 @@
         <v>114</v>
       </c>
       <c r="L49" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M49" s="5">
         <v>35000</v>
@@ -2730,7 +2772,7 @@
         <v>116</v>
       </c>
       <c r="L51" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M51" s="5">
         <v>35000</v>
@@ -2763,8 +2805,8 @@
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="I53" s="53" t="s">
-        <v>134</v>
+      <c r="I53" s="42" t="s">
+        <v>133</v>
       </c>
       <c r="J53" s="5">
         <v>20000</v>
@@ -2774,7 +2816,7 @@
         <v>118</v>
       </c>
       <c r="L53" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M53" s="5">
         <v>40000</v>
@@ -2796,7 +2838,7 @@
         <v>119</v>
       </c>
       <c r="L54" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M54" s="5">
         <v>40000</v>
@@ -2818,7 +2860,7 @@
         <v>120</v>
       </c>
       <c r="L55" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M55" s="5">
         <v>50000</v>
@@ -2830,7 +2872,7 @@
         <v>79</v>
       </c>
       <c r="I56" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J56" s="5">
         <v>20000</v>
@@ -2840,7 +2882,7 @@
         <v>121</v>
       </c>
       <c r="L56" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M56" s="5">
         <v>50000</v>
@@ -2852,7 +2894,7 @@
         <v>122</v>
       </c>
       <c r="L57" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M57" s="5">
         <v>50000</v>
@@ -2864,7 +2906,7 @@
         <v>123</v>
       </c>
       <c r="L58" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M58" s="5">
         <v>50000</v>
@@ -2888,7 +2930,7 @@
         <v>125</v>
       </c>
       <c r="L60" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M60" s="5">
         <v>50000</v>
@@ -2900,7 +2942,7 @@
         <v>126</v>
       </c>
       <c r="L61" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M61" s="5">
         <v>50000</v>
@@ -2924,7 +2966,7 @@
         <v>128</v>
       </c>
       <c r="L63" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M63" s="5">
         <v>50000</v>
@@ -2936,7 +2978,7 @@
         <v>129</v>
       </c>
       <c r="L64" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M64" s="5">
         <v>50000</v>
@@ -2948,7 +2990,7 @@
         <v>130</v>
       </c>
       <c r="L65" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M65" s="5">
         <v>50000</v>
@@ -2960,7 +3002,7 @@
         <v>131</v>
       </c>
       <c r="L66" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M66" s="5">
         <v>50000</v>
@@ -2972,7 +3014,7 @@
         <v>132</v>
       </c>
       <c r="L67" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M67" s="5">
         <v>50000</v>
@@ -2984,7 +3026,7 @@
         <v>133</v>
       </c>
       <c r="L68" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M68" s="5">
         <v>50000</v>
@@ -3008,7 +3050,7 @@
         <v>135</v>
       </c>
       <c r="L70" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M70" s="5">
         <v>75000</v>
@@ -3020,7 +3062,7 @@
         <v>136</v>
       </c>
       <c r="L71" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M71" s="5">
         <v>75000</v>
@@ -3032,7 +3074,7 @@
         <v>137</v>
       </c>
       <c r="L72" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M72" s="5">
         <v>100000</v>
@@ -3044,7 +3086,7 @@
         <v>138</v>
       </c>
       <c r="L73" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M73" s="5">
         <v>150000</v>
@@ -3056,7 +3098,7 @@
         <v>139</v>
       </c>
       <c r="L74" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M74" s="5">
         <v>150000</v>
@@ -3068,7 +3110,7 @@
         <v>140</v>
       </c>
       <c r="L75" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M75" s="5">
         <v>150000</v>
@@ -3080,7 +3122,7 @@
         <v>141</v>
       </c>
       <c r="L76" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M76" s="5">
         <v>150000</v>
@@ -3092,7 +3134,7 @@
         <v>142</v>
       </c>
       <c r="L77" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M77" s="5">
         <v>150000</v>
@@ -3104,7 +3146,7 @@
         <v>143</v>
       </c>
       <c r="L78" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M78" s="5">
         <v>150000</v>
@@ -3116,7 +3158,7 @@
         <v>144</v>
       </c>
       <c r="L79" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M79" s="5">
         <v>150000</v>
@@ -3128,7 +3170,7 @@
         <v>145</v>
       </c>
       <c r="L80" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M80" s="5">
         <v>150000</v>
@@ -3140,7 +3182,7 @@
         <v>146</v>
       </c>
       <c r="L81" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M81" s="5">
         <v>150000</v>
@@ -3152,7 +3194,7 @@
         <v>147</v>
       </c>
       <c r="L82" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M82" s="5">
         <v>150000</v>
@@ -3164,7 +3206,7 @@
         <v>148</v>
       </c>
       <c r="L83" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M83" s="5">
         <v>150000</v>
@@ -3176,7 +3218,7 @@
         <v>149</v>
       </c>
       <c r="L84" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M84" s="5">
         <v>150000</v>
@@ -3188,7 +3230,7 @@
         <v>150</v>
       </c>
       <c r="L85" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M85" s="5">
         <v>150000</v>
@@ -3200,7 +3242,7 @@
         <v>151</v>
       </c>
       <c r="L86" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M86" s="5">
         <v>150000</v>
@@ -3212,7 +3254,7 @@
         <v>152</v>
       </c>
       <c r="L87" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M87" s="5">
         <v>150000</v>
@@ -3224,7 +3266,7 @@
         <v>153</v>
       </c>
       <c r="L88" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M88" s="5">
         <v>150000</v>
@@ -3236,7 +3278,7 @@
         <v>154</v>
       </c>
       <c r="L89" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M89" s="5">
         <v>150000</v>
@@ -3248,7 +3290,7 @@
         <v>155</v>
       </c>
       <c r="L90" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M90" s="5">
         <v>150000</v>
@@ -3260,7 +3302,7 @@
         <v>156</v>
       </c>
       <c r="L91" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M91" s="5">
         <v>150000</v>
@@ -3272,7 +3314,7 @@
         <v>157</v>
       </c>
       <c r="L92" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M92" s="5">
         <v>150000</v>
@@ -3303,7 +3345,7 @@
         <v>68</v>
       </c>
       <c r="D97" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.15">
@@ -3358,50 +3400,50 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="47" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50" t="s">
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="44" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="44" t="s">
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="46"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="53"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="42"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="7" t="s">
         <v>32</v>
       </c>
@@ -3440,7 +3482,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="43"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -3455,30 +3497,30 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="44" t="s">
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="44" t="s">
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="46"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="53"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="42"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
@@ -3517,7 +3559,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B10" s="43"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -3532,30 +3574,30 @@
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="44" t="s">
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="44" t="s">
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="46"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="53"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B12" s="42"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="7" t="s">
         <v>32</v>
       </c>
@@ -3594,7 +3636,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="43"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -3609,30 +3651,30 @@
       <c r="N13" s="9"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="44" t="s">
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="44" t="s">
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="46"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="53"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B15" s="42"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
@@ -3671,7 +3713,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="43"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -3787,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.15">
@@ -3795,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.15">
@@ -3808,13 +3850,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:N5"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="G14:J14"/>
@@ -3827,6 +3862,13 @@
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="K11:N11"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:N5"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3836,79 +3878,378 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="B2" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="C2" s="40" t="s">
         <v>192</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>197</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>81</v>
       </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="54" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s">
         <v>136</v>
       </c>
-      <c r="B6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
+      <c r="C20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="54" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="54" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="54" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/pga.xlsx
+++ b/scripts/pga.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9800" yWindow="460" windowWidth="19000" windowHeight="16780" tabRatio="868" activeTab="2"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16780" tabRatio="868" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Player Tiers &amp; Instructions" sheetId="23" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="210">
   <si>
     <t>Tier A</t>
   </si>
@@ -673,6 +673,12 @@
   </si>
   <si>
     <t xml:space="preserve">Matt Kuchar    </t>
+  </si>
+  <si>
+    <t>Nick Royer</t>
+  </si>
+  <si>
+    <t>Ryan Romes</t>
   </si>
 </sst>
 </file>
@@ -1347,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T98"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -3878,10 +3884,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4252,6 +4258,126 @@
         <v>93</v>
       </c>
     </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="54" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="54" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
